--- a/ДЗ 06 Ильина.xlsx
+++ b/ДЗ 06 Ильина.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Общее Failed</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Браузер</t>
   </si>
   <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>IE 11</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -64,10 +58,6 @@
     <t>Автоматизирвоано</t>
   </si>
   <si>
-    <t xml:space="preserve">Результат
-</t>
-  </si>
-  <si>
     <t>Шаги</t>
   </si>
   <si>
@@ -75,6 +65,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Фотографии
 </t>
     </r>
@@ -113,6 +111,9 @@
     <t>Открывается страница созданного альбома с указанным названием</t>
   </si>
   <si>
+    <t>passed</t>
+  </si>
+  <si>
     <t>Попытка создания альбома без указания названия</t>
   </si>
   <si>
@@ -128,6 +129,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Предусловие: создать альбом;</t>
     </r>
     <r>
@@ -152,6 +161,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Предусловие: создать альбом, иметь сохраненный на устройстве графический файл;</t>
     </r>
     <r>
@@ -177,6 +194,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Предусловие: создать альбом, иметь сохраненный на устройстве неграфический файл;</t>
     </r>
     <r>
@@ -202,6 +227,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Предусловие: создать альбом и добавить в него фотографию;</t>
     </r>
     <r>
@@ -225,6 +258,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Предусловие: создать альбом, добавить в него фотографию, затем удалить. Страницу не обновлять;</t>
     </r>
     <r>
@@ -247,6 +288,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Предусловие: создать альбом и добавить в него фотографию;</t>
     </r>
     <r>
@@ -278,6 +327,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Предусловие: создать альбом и добавить в него фотографию, иметь в списке контактов человека с разрешением отмечать его на фотографиях;</t>
     </r>
     <r>
@@ -306,6 +363,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Предусловие: создать альбом и добавить в него фотографию, иметь в списке контактов человека с запретом отмечать его на фотографиях;</t>
     </r>
     <r>
@@ -341,12 +406,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,20 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -431,42 +482,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,51 +578,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -556,6 +586,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -564,21 +609,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -623,66 +653,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -690,114 +828,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,41 +884,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -916,6 +911,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,7 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,143 +993,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,32 +1188,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1191,15 +1203,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1535,10 +1543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D17"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15"/>
@@ -1553,21 +1561,11 @@
     <col min="8" max="8" width="3.66666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.5047619047619" style="1" customWidth="1"/>
     <col min="10" max="10" width="1.16190476190476" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="2.16190476190476" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.8285714285714" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.16190476190476" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.3333333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.16190476190476" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5047619047619" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5047619047619" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5047619047619" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5047619047619" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3333333333333" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5047619047619" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.82857142857143" style="1"/>
+    <col min="11" max="13" width="7.82857142857143" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.82857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1580,39 +1578,11 @@
       <c r="J1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21">
-        <f>COUNTIF(L$8:L$17,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21">
-        <f>COUNTIF(N$8:N$29,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21">
-        <f>COUNTIF(P$8:P$29,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="21">
-        <f>COUNTIF(R$8:R$29,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="21">
-        <f>COUNTIF(T$8:T$29,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:26">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1625,39 +1595,11 @@
       <c r="J2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="22">
-        <f>COUNTIF(L$8:L$17,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="22">
-        <f>COUNTIF(N$8:N$17,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="22">
-        <f>COUNTIF(P$8:P$17,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="22">
-        <f>COUNTIF(R$8:R$17,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="22">
-        <f>COUNTIF(T$8:T$17,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:26">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1667,27 +1609,14 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="20"/>
-      <c r="L3" s="24"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="20"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1697,23 +1626,14 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="20"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="1:26">
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="1:13">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1723,482 +1643,319 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="L5" s="20"/>
       <c r="M5" s="20"/>
-      <c r="N5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:26">
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="127" customHeight="1" spans="1:26">
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" ht="127" customHeight="1" spans="1:13">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="131" customHeight="1" spans="1:26">
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" ht="131" customHeight="1" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="31"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="52" customHeight="1" spans="1:26">
+      <c r="K8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" ht="52" customHeight="1" spans="1:13">
       <c r="A9" s="2"/>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="31"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="95" customHeight="1" spans="1:26">
+      <c r="K9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" ht="95" customHeight="1" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="10">
         <v>3</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="31"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="109" customHeight="1" spans="1:26">
+      <c r="K10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" ht="109" customHeight="1" spans="1:13">
       <c r="A11" s="2"/>
       <c r="B11" s="10">
         <v>4</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="105" spans="1:26">
+      <c r="K11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" ht="105" spans="1:13">
       <c r="A12" s="2"/>
       <c r="B12" s="10">
         <v>5</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="90" spans="1:26">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" ht="90" spans="1:13">
       <c r="A13" s="2"/>
       <c r="B13" s="10">
         <v>6</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="31"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:26">
+      <c r="K13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" ht="45" spans="1:13">
       <c r="A14" s="2"/>
       <c r="B14" s="10">
         <v>7</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="31"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="78" customHeight="1" spans="1:26">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" ht="78" customHeight="1" spans="1:13">
       <c r="A15" s="2"/>
       <c r="B15" s="10">
         <v>8</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="31"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="165" spans="1:26">
+      <c r="K15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" ht="165" spans="1:13">
       <c r="A16" s="2"/>
       <c r="B16" s="10">
         <v>9</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="31"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="120" spans="1:26">
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" ht="120" spans="1:13">
       <c r="A17" s="2"/>
       <c r="B17" s="10">
         <v>10</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="31"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:26">
+      <c r="K17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="16">
         <f>COUNT(I8:I17)</f>
@@ -2212,26 +1969,13 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="16">
         <f>COUNTA(D8:D17)</f>
@@ -2245,26 +1989,13 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="16">
         <f>COUNT(J8:J17)</f>
@@ -2278,21 +2009,8 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="2:26">
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -2305,21 +2023,8 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:26">
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="2:13">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2332,21 +2037,8 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:26">
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:13">
       <c r="A23" s="18"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -2360,21 +2052,8 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="18"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2388,21 +2067,8 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="18"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -2416,21 +2082,8 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="18"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -2444,21 +2097,8 @@
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="18"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -2472,21 +2112,8 @@
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="18"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -2500,21 +2127,8 @@
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="18"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -2528,21 +2142,8 @@
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="18"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2556,21 +2157,8 @@
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="18"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -2584,21 +2172,8 @@
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="18"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2612,46 +2187,15 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="18"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:26">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="18"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="26:26">
-      <c r="Z35" s="17"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="26:26">
-      <c r="Z36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="8">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -2660,17 +2204,7 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="T6:T7"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8;N8;P8;R8;T8;L9;N9;P9;R9;T9;L10;N10;P10;R10;T10;L11;N11;P11;R11;T11;L12;N12;P12;R12;T12;L17;N17;P17;R17;T17;L13:L14;L15:L16;N13:N14;N15:N16;P13:P14;P15:P16;R13:R14;R15:R16;T13:T14;T15:T16">
-      <formula1>Result</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
